--- a/biology/Biochimie/Coenzyme_M/Coenzyme_M.xlsx
+++ b/biology/Biochimie/Coenzyme_M/Coenzyme_M.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La coenzyme M ou 2-sulfanyléthanesulfonate, souvent abrégée arp en CoM-SH, intervient dans une réaction de transfert de méthyle à l'avant-dernière étape de la méthanogenèse chez les archées méthanogènes[2],[3].
+La coenzyme M ou 2-sulfanyléthanesulfonate, souvent abrégée arp en CoM-SH, intervient dans une réaction de transfert de méthyle à l'avant-dernière étape de la méthanogenèse chez les archées méthanogènes,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Propriétés physico-chimiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un anion de formule HS–CH2–CH2–SO3− formant un sel avec un cation dont la nature est indifférente du point de vue de la fonction biologique ; le plus commun de ces sels est avec le sodium Na+, correspondant au mesna, ou 2-sulfanyléthanesulfonate de sodium.
 L'anion possède à la fois un groupement sulfhydryle –SH sur lequel se déroule la réaction catalysée et un groupement sulfonate –SO3− responsable de sa solubilité en milieu aqueux.
@@ -544,9 +558,11 @@
           <t>Fonction biochimique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette coenzyme est le transporteur du groupe méthyle dans la méthanogenèse. Elle est convertie en méthyl-coenzyme M, le thioéther CH3–S–CH2–CH2–SO3−, au cours de l'avant-dernière étape de la formation du méthane[4]. La coenzyme M réagit ensuite avec la coenzyme B, la 7-thioheptanoylthréoninephosphate, pour donner un hétérosulfure en libérant le méthane :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette coenzyme est le transporteur du groupe méthyle dans la méthanogenèse. Elle est convertie en méthyl-coenzyme M, le thioéther CH3–S–CH2–CH2–SO3−, au cours de l'avant-dernière étape de la formation du méthane. La coenzyme M réagit ensuite avec la coenzyme B, la 7-thioheptanoylthréoninephosphate, pour donner un hétérosulfure en libérant le méthane :
 CoB–SH + CH3–S–CoM →  CoB–S–S–CoM + CH4.
 Cette conversion est réalisée par la méthyl-coenzyme M réductase, avec le cofacteur F430 comme groupement prosthétique.
 </t>
